--- a/src/utils/sxsyzlzq/friends/jiangnan/zz_jiangnan_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/jiangnan/zz_jiangnan_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15420" windowHeight="10515" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="14490" windowHeight="11325" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="格洛兰德" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="60">
   <si>
     <t>名称</t>
   </si>
@@ -53,16 +53,19 @@
     <t>蓝色</t>
   </si>
   <si>
+    <t>沸腾血刃</t>
+  </si>
+  <si>
     <t>蓄力射手</t>
   </si>
   <si>
-    <t>炎球</t>
+    <t>爆燃邪鬼</t>
   </si>
   <si>
     <t>热火冲锋</t>
   </si>
   <si>
-    <t>无面狂奔者</t>
+    <t>猩红勇士</t>
   </si>
   <si>
     <t>天降碎石</t>
@@ -92,15 +95,18 @@
     <t>无畏猎户</t>
   </si>
   <si>
+    <t>暴怒野人</t>
+  </si>
+  <si>
     <t>诱敌草人</t>
   </si>
   <si>
+    <t>活力仙人掌</t>
+  </si>
+  <si>
     <t>绝望镰魔</t>
   </si>
   <si>
-    <t>活力仙人掌</t>
-  </si>
-  <si>
     <t>岩浆球</t>
   </si>
   <si>
@@ -110,9 +116,6 @@
     <t>灼神双炎</t>
   </si>
   <si>
-    <t>石斧头领</t>
-  </si>
-  <si>
     <t>飞斧女豪</t>
   </si>
   <si>
@@ -131,22 +134,19 @@
     <t>双头法师</t>
   </si>
   <si>
+    <t>上古蛮王</t>
+  </si>
+  <si>
     <t>熔金饕餮兽</t>
   </si>
   <si>
-    <t>热血摇滚·凯</t>
-  </si>
-  <si>
     <t>橙色卡等：</t>
   </si>
   <si>
     <t>总计：</t>
   </si>
   <si>
-    <t>狂暴炎球</t>
-  </si>
-  <si>
-    <t>箭竹守卫</t>
+    <t>铸甲熔岩魔</t>
   </si>
   <si>
     <t>白羊药师</t>
@@ -173,31 +173,34 @@
     <t>连击</t>
   </si>
   <si>
-    <t>驱魔道人</t>
+    <t>风铃道人</t>
+  </si>
+  <si>
+    <t>风卷残云</t>
   </si>
   <si>
     <t>扫叶僧</t>
   </si>
   <si>
+    <t>萌化术</t>
+  </si>
+  <si>
     <t>万物之灵</t>
   </si>
   <si>
     <t>上宝沁金耙</t>
   </si>
   <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
     <t>旷野游侠·大羽</t>
   </si>
   <si>
     <t>比尔&amp;比利</t>
   </si>
   <si>
-    <t>血饮烈斧·凯</t>
-  </si>
-  <si>
     <t>蛮石卡等：</t>
+  </si>
+  <si>
+    <t>巴克&amp;巴罗</t>
   </si>
   <si>
     <t>怨魂饕餮兽</t>
@@ -853,7 +856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,6 +870,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1185,8 +1191,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H38" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1231,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -1239,7 +1245,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1253,7 +1259,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1301,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -1318,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1329,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -1337,7 +1343,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1360,14 +1366,22 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -1376,38 +1390,30 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <f>AVERAGE(D2:D12)</f>
-        <v>19.8181818181818</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>20</v>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <f>AVERAGE(D2:D13)</f>
+        <v>19.9166666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -1418,10 +1424,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -1432,10 +1438,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -1446,80 +1452,80 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -1530,10 +1536,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -1544,10 +1550,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -1558,13 +1564,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>20</v>
@@ -1572,10 +1578,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
@@ -1586,10 +1592,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
@@ -1597,7 +1603,7 @@
       <c r="D32" s="2">
         <v>20</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
@@ -1613,23 +1619,23 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
-        <f>AVERAGE(D18:D32)</f>
-        <v>19.6</v>
+        <f>AVERAGE(D19:D32)</f>
+        <v>19.8571428571429</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
@@ -1640,44 +1646,44 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C39" s="3">
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1694,26 +1700,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D38:D41)</f>
-        <v>19.25</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D12,D18:D32,D38:D41)</f>
-        <v>19.6333333333333</v>
+        <f>AVERAGE(D2:D13,D19:D32,D38:D41)</f>
+        <v>19.8333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1728,8 +1734,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1774,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -1782,7 +1788,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1810,7 +1816,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1824,13 +1830,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>20</v>
@@ -1838,21 +1844,21 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1861,12 +1867,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1880,7 +1886,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1894,7 +1900,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -1920,25 +1926,23 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>19.3636363636364</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
+        <v>19.9090909090909</v>
+      </c>
+    </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -1949,10 +1953,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -1963,10 +1967,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -1977,10 +1981,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -1991,80 +1995,80 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -2075,10 +2079,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -2089,10 +2093,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -2103,13 +2107,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>20</v>
@@ -2117,10 +2121,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
@@ -2131,10 +2135,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
@@ -2142,7 +2146,7 @@
       <c r="D32" s="2">
         <v>20</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
@@ -2158,25 +2162,23 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <f>AVERAGE(D18:D32)</f>
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
+        <v>19.8666666666667</v>
+      </c>
+    </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
@@ -2187,44 +2189,44 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C39" s="3">
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2241,28 +2243,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D38:D41)</f>
-        <v>19.25</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
+        <v>19.5</v>
+      </c>
+    </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D32,D38:D41)</f>
-        <v>19.4666666666667</v>
+        <v>19.8333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2276,8 +2276,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2302,21 +2302,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2409,26 +2409,26 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -2465,12 +2465,12 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -2479,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2512,37 +2512,45 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
@@ -2551,41 +2559,33 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1">
-        <f>AVERAGE(D2:D18)</f>
-        <v>17.9411764705882</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2">
-        <v>20</v>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <f>AVERAGE(D2:D19)</f>
+        <v>17.8333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2">
         <v>20</v>
@@ -2593,38 +2593,38 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -2652,10 +2652,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>20</v>
@@ -2663,47 +2663,46 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
       </c>
       <c r="D32" s="2">
-        <v>13</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2">
         <v>5</v>
       </c>
       <c r="D33" s="2">
-        <v>12</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2"/>
@@ -2719,23 +2718,23 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <f>AVERAGE(D24:D33)</f>
-        <v>18.3</v>
+        <f>AVERAGE(D25:D33)</f>
+        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>3</v>
@@ -2746,30 +2745,30 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2786,26 +2785,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D39:D41)</f>
-        <v>15.6666666666667</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D18,D24:D33,D39:D41)</f>
-        <v>17.8333333333333</v>
+        <f>AVERAGE(D2:D19,D25:D33,D39:D41)</f>
+        <v>17.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2820,8 +2819,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2846,35 +2845,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2888,7 +2887,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2902,7 +2901,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2911,12 +2910,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2925,12 +2924,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2944,7 +2943,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2953,40 +2952,40 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -3000,7 +2999,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -3009,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3042,133 +3041,135 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <f>AVERAGE(D2:D16)</f>
-        <v>18.2666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>20</v>
-      </c>
-    </row>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <f>AVERAGE(D2:D19)</f>
+        <v>17.8333333333333</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -3177,12 +3178,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -3190,58 +3191,63 @@
       <c r="D29" s="2">
         <v>20</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>20</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>20</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
       </c>
       <c r="D32" s="2">
-        <v>13</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>15</v>
+      </c>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2"/>
@@ -3250,72 +3256,66 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <f>AVERAGE(D22:D32)</f>
-        <v>18.9090909090909</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3">
-        <v>20</v>
-      </c>
-    </row>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <f>AVERAGE(D25:D33)</f>
+        <v>18.3333333333333</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C39" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3324,34 +3324,37 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="D43"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D38:D41)</f>
-        <v>16.5</v>
-      </c>
-    </row>
+        <f>AVERAGE(D39:D41)</f>
+        <v>17.3333333333333</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D16,D22:D32,D38:D41)</f>
-        <v>18.2666666666667</v>
+        <f>AVERAGE(D2:D19,D25:D33,D39:D41)</f>
+        <v>17.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3363,10 +3366,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3389,18 +3392,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -3411,7 +3414,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -3422,13 +3425,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3444,63 +3447,63 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>19</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>19.125</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>19.4285714285714</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -3511,29 +3514,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -3555,7 +3558,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -3566,7 +3569,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
@@ -3576,15 +3579,9 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>20</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
@@ -3592,87 +3589,71 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C15:C22)</f>
-        <v>19.625</v>
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C14:C21)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="3">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3">
-        <v>19</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3">
-        <v>18</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C28:C30)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="A31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C31" s="3">
+        <f>AVERAGE(C27:C28)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C9,C15:C22,C28:C30)</f>
-        <v>19.3157894736842</v>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C8,C14:C21,C27:C28)</f>
+        <v>19.7647058823529</v>
       </c>
     </row>
   </sheetData>
@@ -3684,10 +3665,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3713,7 +3694,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -3721,10 +3702,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -3746,7 +3727,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -3754,18 +3735,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -3776,7 +3757,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -3797,20 +3778,20 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>19.2857142857143</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -3821,7 +3802,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -3832,10 +3813,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -3843,7 +3824,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -3854,18 +3835,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -3876,7 +3857,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -3897,31 +3878,37 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C14:C20)</f>
-        <v>19.5714285714286</v>
+        <v>19.7142857142857</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20</v>
+      <c r="B26" s="5">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -3929,27 +3916,32 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C8,C14:C20,C26:C26)</f>
-        <v>19.4666666666667</v>
+      <c r="C30" s="3">
+        <f>AVERAGE(C26:C27)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C8,C14:C20,C26:C27)</f>
+        <v>19.75</v>
       </c>
     </row>
   </sheetData>
@@ -3963,8 +3955,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3987,51 +3979,51 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -4042,24 +4034,24 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4086,52 +4078,52 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>17.1</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <f>AVERAGE(C2:C12)</f>
+        <v>16.8181818181818</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -4142,24 +4134,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4174,25 +4166,25 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2">
-        <f>AVERAGE(C17:C20)</f>
-        <v>15.75</v>
+        <f>AVERAGE(C18:C20)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4210,26 +4202,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C11,C17:C20,C26:C26)</f>
-        <v>16.2</v>
+        <f>AVERAGE(C2:C12,C18:C20,C26:C26)</f>
+        <v>16.1333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/jiangnan/zz_jiangnan_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/jiangnan/zz_jiangnan_level.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18525" windowHeight="12255" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
     <sheet name="炼狱" sheetId="7" r:id="rId2"/>
     <sheet name="禅意" sheetId="6" r:id="rId3"/>
+    <sheet name="帝国" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>名称</t>
   </si>
@@ -70,6 +71,9 @@
     <t>活力仙人掌</t>
   </si>
   <si>
+    <t>肥鼠晚宴</t>
+  </si>
+  <si>
     <t>飞斧狂人</t>
   </si>
   <si>
@@ -85,6 +89,9 @@
     <t>比尔&amp;比利</t>
   </si>
   <si>
+    <t>血饮烈斧·凯</t>
+  </si>
+  <si>
     <t>橙色卡等：</t>
   </si>
   <si>
@@ -97,18 +104,15 @@
     <t>落雷击</t>
   </si>
   <si>
-    <t>沸腾血刃</t>
-  </si>
-  <si>
     <t>爆燃邪鬼</t>
   </si>
   <si>
+    <t>炎球</t>
+  </si>
+  <si>
     <t>热火冲锋</t>
   </si>
   <si>
-    <t>猩红勇士</t>
-  </si>
-  <si>
     <t>烈焰风暴</t>
   </si>
   <si>
@@ -118,9 +122,6 @@
     <t>觅食大嘴兽</t>
   </si>
   <si>
-    <t>铸甲熔岩魔</t>
-  </si>
-  <si>
     <t>绝望镰魔</t>
   </si>
   <si>
@@ -136,6 +137,9 @@
     <t>巴克&amp;巴罗</t>
   </si>
   <si>
+    <t>熔岩进击</t>
+  </si>
+  <si>
     <t>怨魂饕餮兽</t>
   </si>
   <si>
@@ -182,6 +186,39 @@
   </si>
   <si>
     <t>禅意卡等：</t>
+  </si>
+  <si>
+    <t>旅行背包</t>
+  </si>
+  <si>
+    <t>重装固守</t>
+  </si>
+  <si>
+    <t>传记·生命序曲</t>
+  </si>
+  <si>
+    <t>天使琼浆</t>
+  </si>
+  <si>
+    <t>炫目神光</t>
+  </si>
+  <si>
+    <t>光明惩戒</t>
+  </si>
+  <si>
+    <t>夺取阵地</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
   </si>
 </sst>
 </file>
@@ -1145,10 +1182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1318,7 +1355,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
@@ -1326,7 +1363,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -1337,7 +1374,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -1351,16 +1388,22 @@
         <v>14</v>
       </c>
       <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
@@ -1368,25 +1411,19 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C14:C21)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="C25" s="2">
+        <f>AVERAGE(C14:C22)</f>
         <v>20</v>
       </c>
     </row>
@@ -1395,44 +1432,66 @@
         <v>17</v>
       </c>
       <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C27:C28)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C8,C14:C21,C27:C28)</f>
-        <v>19.7647058823529</v>
+      <c r="B33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3">
+        <f>AVERAGE(C28:C30)</f>
+        <v>19.6666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C8,C14:C22,C28:C30)</f>
+        <v>19.7368421052632</v>
       </c>
     </row>
   </sheetData>
@@ -1444,10 +1503,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1470,7 +1529,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1481,10 +1540,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -1492,7 +1551,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1503,7 +1562,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1514,10 +1573,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -1525,7 +1584,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1535,42 +1594,42 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>20</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1581,10 +1640,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1592,102 +1651,96 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C13:C18)</f>
+        <v>19.8333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C14:C20)</f>
-        <v>19.7142857142857</v>
+      <c r="C24" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>20</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -1695,32 +1748,27 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C26:C27)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C8,C14:C20,C26:C27)</f>
-        <v>19.75</v>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C24:C26)</f>
+        <v>16.6666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C7,C13:C18,C24:C26)</f>
+        <v>19.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1782,7 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1758,7 +1806,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1769,7 +1817,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1780,7 +1828,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1791,7 +1839,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1802,7 +1850,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1813,7 +1861,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1824,7 +1872,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1835,7 +1883,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1846,7 +1894,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1857,7 +1905,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1868,7 +1916,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -1902,7 +1950,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -1913,7 +1961,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -1924,7 +1972,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -1948,7 +1996,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C18:C20)</f>
@@ -1957,7 +2005,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -1984,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
@@ -1993,14 +2041,297 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C12,C18:C20,C26:C26)</f>
         <v>16.1333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>12.2</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C17:C18)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C24:C26)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C11,C17:C18,C24:C26)</f>
+        <v>12.1333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/jiangnan/zz_jiangnan_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/jiangnan/zz_jiangnan_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>名称</t>
   </si>
@@ -62,18 +62,12 @@
     <t>无畏猎户</t>
   </si>
   <si>
-    <t>暴怒野人</t>
-  </si>
-  <si>
     <t>诱敌草人</t>
   </si>
   <si>
     <t>活力仙人掌</t>
   </si>
   <si>
-    <t>肥鼠晚宴</t>
-  </si>
-  <si>
     <t>飞斧狂人</t>
   </si>
   <si>
@@ -104,12 +98,12 @@
     <t>落雷击</t>
   </si>
   <si>
+    <t>沸腾血刃</t>
+  </si>
+  <si>
     <t>爆燃邪鬼</t>
   </si>
   <si>
-    <t>炎球</t>
-  </si>
-  <si>
     <t>热火冲锋</t>
   </si>
   <si>
@@ -128,6 +122,9 @@
     <t>岩浆球</t>
   </si>
   <si>
+    <t>鲜血督军</t>
+  </si>
+  <si>
     <t>灼神双炎</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>巴克&amp;巴罗</t>
   </si>
   <si>
-    <t>熔岩进击</t>
-  </si>
-  <si>
     <t>怨魂饕餮兽</t>
   </si>
   <si>
@@ -155,30 +149,30 @@
     <t>飓风术</t>
   </si>
   <si>
+    <t>太极剑法</t>
+  </si>
+  <si>
     <t>执剑道者</t>
   </si>
   <si>
-    <t>龟族僧人</t>
-  </si>
-  <si>
     <t>叶幻师</t>
   </si>
   <si>
     <t>连击</t>
   </si>
   <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
     <t>风铃道人</t>
   </si>
   <si>
-    <t>风卷残云</t>
+    <t>驱魔道人</t>
   </si>
   <si>
     <t>扫叶僧</t>
   </si>
   <si>
-    <t>萌化术</t>
-  </si>
-  <si>
     <t>万物之灵</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
     <t>旅行背包</t>
   </si>
   <si>
-    <t>重装固守</t>
-  </si>
-  <si>
     <t>传记·生命序曲</t>
   </si>
   <si>
@@ -201,6 +192,9 @@
   </si>
   <si>
     <t>炫目神光</t>
+  </si>
+  <si>
+    <t>圣殿弩手</t>
   </si>
   <si>
     <t>光明惩戒</t>
@@ -1182,10 +1176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1258,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1280,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1302,7 +1296,7 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>19.4285714285714</v>
+        <v>19.7142857142857</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1333,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -1344,7 +1338,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -1352,10 +1346,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
@@ -1363,7 +1357,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -1374,56 +1368,56 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C23" s="2">
+        <f>AVERAGE(C14:C20)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C14:C22)</f>
+      <c r="C27" s="3">
         <v>20</v>
       </c>
     </row>
@@ -1432,66 +1426,44 @@
         <v>17</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="3">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="C31" s="3">
+        <f>AVERAGE(C26:C28)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="3">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C28:C30)</f>
-        <v>19.6666666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C8,C14:C22,C28:C30)</f>
-        <v>19.7368421052632</v>
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C8,C14:C20,C26:C28)</f>
+        <v>19.8823529411765</v>
       </c>
     </row>
   </sheetData>
@@ -1505,8 +1477,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1529,7 +1501,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1540,10 +1512,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -1551,7 +1523,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1562,7 +1534,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1573,7 +1545,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -1584,7 +1556,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1618,7 +1590,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -1629,7 +1601,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1640,7 +1612,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -1651,7 +1623,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1662,7 +1634,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1673,19 +1645,25 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1693,42 +1671,36 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C13:C18)</f>
-        <v>19.8333333333333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>18</v>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C13:C19)</f>
+        <v>19.8571428571429</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -1752,23 +1724,23 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>16.6666666666667</v>
+        <f>AVERAGE(C25:C26)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C7,C13:C18,C24:C26)</f>
-        <v>19.2666666666667</v>
+        <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
+        <v>19.8</v>
       </c>
     </row>
   </sheetData>
@@ -1783,7 +1755,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1806,7 +1778,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1817,18 +1789,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1839,18 +1811,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1861,7 +1833,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1872,18 +1844,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1894,7 +1866,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1905,24 +1877,24 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1944,41 +1916,41 @@
       </c>
       <c r="C15" s="1">
         <f>AVERAGE(C2:C12)</f>
-        <v>16.8181818181818</v>
+        <v>16.6363636363636</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1996,16 +1968,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C18:C20)</f>
-        <v>15</v>
+        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2032,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
@@ -2041,14 +2013,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C12,C18:C20,C26:C26)</f>
-        <v>16.1333333333333</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2062,8 +2034,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2086,7 +2058,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2097,7 +2069,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2108,7 +2080,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2119,7 +2091,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -2130,7 +2102,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -2141,7 +2113,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -2152,7 +2124,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -2163,7 +2135,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -2174,18 +2146,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
@@ -2195,44 +2167,42 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>12.2</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>12</v>
-      </c>
+      <c r="C15" s="1">
+        <f>AVERAGE(C2:C12)</f>
+        <v>12.4545454545455</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2256,18 +2226,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
-        <f>AVERAGE(C17:C18)</f>
+        <f>AVERAGE(C18:C18)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -2278,7 +2246,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -2289,7 +2257,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3">
         <v>6</v>
@@ -2313,25 +2281,23 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C24:C26)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C11,C17:C18,C24:C26)</f>
-        <v>12.1333333333333</v>
+        <f>AVERAGE(C2:C12,C18:C18,C24:C26)</f>
+        <v>12.3333333333333</v>
       </c>
     </row>
   </sheetData>
